--- a/src/main/resources/Test_Cases/TestCase_intend_ro.xlsx
+++ b/src/main/resources/Test_Cases/TestCase_intend_ro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -141,15 +141,6 @@
     <t>08-03-2023</t>
   </si>
   <si>
-    <t>Test the filters from the search results page</t>
-  </si>
-  <si>
-    <t>Have the page with the search results: https://intend.ro/produse?term=intel+core where "intel" and "core" are the search terms</t>
-  </si>
-  <si>
-    <t>The loaded page with the search results: https://intend.ro/produse?term=intel+core</t>
-  </si>
-  <si>
     <t>Navigate to: https://intend.ro/produse?term=intel+core</t>
   </si>
   <si>
@@ -166,6 +157,54 @@
   </si>
   <si>
     <t>The Procesoare text is bolded and a new page should load adding the second filter to the previous results: https://intend.ro/produse/ordine/stoc-pret:asc?term=intel%20core&amp;idc=2</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify if the filters for displaing the products are working</t>
+  </si>
+  <si>
+    <t>Verify if products can be added to the shopping cart</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Test the add  to shopping cart functionality of the online store intend.ro</t>
+  </si>
+  <si>
+    <t>Test the filters from the search results page of the online store intend.ro</t>
+  </si>
+  <si>
+    <t>Click on the "CONTINUA CUMPARATURILE" button to continue the shopping.</t>
+  </si>
+  <si>
+    <t>The filtered search results page is loaded: https://intend.ro/produse/ordine/stoc-pret:asc?term=intel%20core&amp;idc=2</t>
+  </si>
+  <si>
+    <t>Click on the top left "ADAUGA LA COS" button. It should be the first product found by the search fuctionality and the applied filters.</t>
+  </si>
+  <si>
+    <t>Click on the third from the top left "ADAUGA LA COS" button. It should be the third product found by the search fuctionality and the applied filters.</t>
+  </si>
+  <si>
+    <t>Added to the shopping cart and order page is loaded: https://intend.ro/comanda
+Now the cart sould have two products!</t>
+  </si>
+  <si>
+    <t>Added to the shopping cart and order page is loaded: https://intend.ro/comanda
+The cart should have one product!</t>
+  </si>
+  <si>
+    <t>The loaded page with the search results: https://intend.ro/produse?term=intel+core
+where "intel" and "core" are the search terms</t>
+  </si>
+  <si>
+    <t>Load page with the filtered seach results: https://intend.ro/produse/ordine/stoc-pret:asc?term=intel%20core&amp;idc=2</t>
+  </si>
+  <si>
+    <t>TC_04</t>
   </si>
 </sst>
 </file>
@@ -318,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -361,26 +400,49 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -394,45 +456,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -729,48 +771,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -786,10 +828,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -814,29 +856,29 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="40" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -855,98 +897,98 @@
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -979,182 +1021,169 @@
       <c r="K14" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="30" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="19" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="19" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="19" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>4</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="19" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -1171,22 +1200,35 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1199,61 +1241,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:K20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.109375" style="2"/>
     <col min="3" max="3" width="19.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="2"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
+    <col min="5" max="5" width="18.77734375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="str">
         <f>'Test Case 1'!C2</f>
         <v>Robert BAN</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -1269,10 +1313,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1297,30 +1341,30 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="39" t="str">
+      <c r="B6" s="22"/>
+      <c r="C6" s="15" t="str">
         <f>'Test Case 1'!C6</f>
         <v>Robert BAN</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="40" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="40"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -1339,98 +1383,96 @@
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="8"/>
       <c r="F8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-    </row>
-    <row r="9" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="G9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -1449,7 +1491,9 @@
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1461,180 +1505,159 @@
       <c r="K14" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="30" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="19" t="s">
+      <c r="B18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="19" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="19" t="s">
+      <c r="B19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="19" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="19" t="s">
+      <c r="B20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="19" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="G9:K9"/>
@@ -1651,401 +1674,6 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="9.109375" style="2"/>
-    <col min="3" max="3" width="19.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="1" t="str">
-        <f>'Test Case 1'!C2</f>
-        <v>Robert BAN</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="39" t="str">
-        <f>'Test Case 1'!C6</f>
-        <v>Robert BAN</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="10">
-        <v>2</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>3</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10">
-        <v>3</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>4</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10">
-        <v>4</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>2</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>3</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>4</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -2059,6 +1687,15 @@
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="F16:H17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
@@ -2066,6 +1703,436 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.109375" style="2"/>
+    <col min="3" max="3" width="19.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2"/>
+    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="1" t="str">
+        <f>'Test Case 1'!C2</f>
+        <v>Robert BAN</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="15" t="str">
+        <f>'Test Case 1'!C6</f>
+        <v>Robert BAN</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="10">
+        <v>4</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>3</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>4</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="G9:K9"/>
@@ -2082,14 +2149,35 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2102,7 +2190,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD23"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2113,43 +2201,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="str">
         <f>'Test Case 1'!C2</f>
         <v>Robert BAN</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -2165,10 +2255,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2193,26 +2283,26 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="39" t="str">
+      <c r="B6" s="22"/>
+      <c r="C6" s="15" t="str">
         <f>'Test Case 1'!C6</f>
         <v>Robert BAN</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="22" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -2231,90 +2321,90 @@
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="8"/>
       <c r="F8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="3"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="3"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -2345,153 +2435,149 @@
       <c r="K14" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="30" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
     </row>
     <row r="21" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>4</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:D12"/>
@@ -2501,26 +2587,30 @@
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/src/main/resources/Test_Cases/TestCase_intend_ro.xlsx
+++ b/src/main/resources/Test_Cases/TestCase_intend_ro.xlsx
@@ -411,68 +411,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -760,7 +760,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -771,17 +771,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="17" t="s">
         <v>24</v>
       </c>
@@ -792,27 +792,27 @@
       <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="30" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -828,10 +828,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -856,29 +856,29 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="38" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="39"/>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -897,22 +897,22 @@
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -1021,53 +1021,53 @@
       <c r="K14" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
@@ -1083,14 +1083,14 @@
       <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
@@ -1106,14 +1106,14 @@
       <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="16" t="s">
         <v>17</v>
       </c>
@@ -1129,14 +1129,14 @@
       <c r="A21" s="10">
         <v>4</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="26" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="16" t="s">
         <v>17</v>
       </c>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
@@ -1176,34 +1176,15 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
@@ -1213,22 +1194,41 @@
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F23:H23"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1255,17 +1255,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="17" t="s">
         <v>50</v>
       </c>
@@ -1276,28 +1276,28 @@
       <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="str">
         <f>'Test Case 1'!C2</f>
         <v>Robert BAN</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="30" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -1313,10 +1313,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1341,30 +1341,30 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="15" t="str">
         <f>'Test Case 1'!C6</f>
         <v>Robert BAN</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="38" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="39"/>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -1383,22 +1383,22 @@
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="8"/>
       <c r="F8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -1505,53 +1505,53 @@
       <c r="K14" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
@@ -1567,14 +1567,14 @@
       <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
@@ -1590,14 +1590,14 @@
       <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="16" t="s">
         <v>17</v>
       </c>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="21" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
@@ -1624,10 +1624,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
@@ -1650,14 +1650,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F16:H17"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="G9:K9"/>
@@ -1674,35 +1695,14 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1728,17 +1728,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="17" t="s">
         <v>49</v>
       </c>
@@ -1749,28 +1749,28 @@
       <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="str">
         <f>'Test Case 1'!C2</f>
         <v>Robert BAN</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="30" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -1786,10 +1786,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1814,30 +1814,30 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="15" t="str">
         <f>'Test Case 1'!C6</f>
         <v>Robert BAN</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="38" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="39"/>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -1856,22 +1856,22 @@
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="8"/>
       <c r="F8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -1978,53 +1978,53 @@
       <c r="K14" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="16" t="s">
         <v>17</v>
       </c>
@@ -2040,14 +2040,14 @@
       <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="26"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="16" t="s">
         <v>17</v>
       </c>
@@ -2063,14 +2063,14 @@
       <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="16" t="s">
         <v>17</v>
       </c>
@@ -2086,10 +2086,10 @@
       <c r="A21" s="10">
         <v>4</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
@@ -2112,10 +2112,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
@@ -2125,14 +2125,35 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F16:H17"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="G9:K9"/>
@@ -2149,35 +2170,14 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2201,17 +2201,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -2220,26 +2220,26 @@
       <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="1" t="str">
         <f>'Test Case 1'!C2</f>
         <v>Robert BAN</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -2255,10 +2255,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="12"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2283,26 +2283,26 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="15" t="str">
         <f>'Test Case 1'!C6</f>
         <v>Robert BAN</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -2321,22 +2321,22 @@
       <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="8"/>
       <c r="F8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -2435,49 +2435,49 @@
       <c r="K14" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="16"/>
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
@@ -2489,10 +2489,10 @@
       <c r="A19" s="10">
         <v>2</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
@@ -2504,10 +2504,10 @@
       <c r="A20" s="10">
         <v>3</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="16"/>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
@@ -2519,10 +2519,10 @@
       <c r="A21" s="10">
         <v>4</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
@@ -2558,6 +2558,45 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2572,45 +2611,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
